--- a/out.xlsx
+++ b/out.xlsx
@@ -471,11 +471,15 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B2" t="n">
-        <v>61552516661749</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://fb.com/61552516661749</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -496,11 +500,15 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B3" t="n">
-        <v>61553217007776</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://fb.com/61553217007776</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -521,11 +529,15 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B4" t="n">
-        <v>61556151751513</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://fb.com/61556151751513</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -546,11 +558,15 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B5" t="n">
-        <v>61557137548199</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://fb.com/61557137548199</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -571,11 +587,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B6" t="n">
-        <v>61558385882845</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://fb.com/61558385882845</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -596,11 +616,15 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B7" t="n">
-        <v>61558807285836</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://fb.com/61558807285836</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -621,11 +645,15 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B8" t="n">
-        <v>61560288208573</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://fb.com/61560288208573</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -646,11 +674,15 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B9" t="n">
-        <v>61566552086330</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://fb.com/61566552086330</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -671,11 +703,15 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B10" t="n">
-        <v>61567926881754</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://fb.com/61567926881754</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -704,11 +740,15 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B11" t="n">
-        <v>61572601696154</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://fb.com/61572601696154</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -729,11 +769,15 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B12" t="n">
-        <v>61574761748920</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://fb.com/61574761748920</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -754,11 +798,15 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B13" t="n">
-        <v>61575647450223</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://fb.com/61575647450223</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -779,11 +827,15 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B14" t="n">
-        <v>61576234682173</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://fb.com/61576234682173</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -804,11 +856,15 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B15" t="n">
-        <v>61578047206846</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://fb.com/61578047206846</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -829,11 +885,15 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B16" t="n">
-        <v>61580884115572</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://fb.com/61580884115572</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -854,11 +914,15 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B17" t="n">
-        <v>61584034933515</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://fb.com/61584034933515</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -879,11 +943,15 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B18" t="n">
-        <v>100000103922777</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://fb.com/100000103922777</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -904,11 +972,15 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B19" t="n">
-        <v>100000428657972</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://fb.com/100000428657972</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -929,11 +1001,15 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B20" t="n">
-        <v>100001144867879</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://fb.com/100001144867879</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -954,11 +1030,15 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B21" t="n">
-        <v>100001416870775</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://fb.com/100001416870775</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -979,11 +1059,15 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B22" t="n">
-        <v>100001711242932</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://fb.com/100001711242932</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1004,11 +1088,15 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B23" t="n">
-        <v>100002656857860</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://fb.com/100002656857860</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1029,11 +1117,15 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B24" t="n">
-        <v>100002718917000</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://fb.com/100002718917000</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1054,11 +1146,15 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B25" t="n">
-        <v>100002781273091</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://fb.com/100002781273091</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1079,11 +1175,15 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B26" t="n">
-        <v>100003258251918</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://fb.com/100003258251918</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1104,11 +1204,15 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B27" t="n">
-        <v>100003272376536</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://fb.com/100003272376536</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1129,11 +1233,15 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B28" t="n">
-        <v>100003397452727</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://fb.com/100003397452727</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1154,11 +1262,15 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B29" t="n">
-        <v>100003489267042</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://fb.com/100003489267042</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1179,11 +1291,15 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B30" t="n">
-        <v>100003653961124</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://fb.com/100003653961124</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1204,11 +1320,15 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B31" t="n">
-        <v>100003766005292</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://fb.com/100003766005292</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1229,11 +1349,15 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B32" t="n">
-        <v>100004056293804</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://fb.com/100004056293804</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1254,11 +1378,15 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B33" t="n">
-        <v>100004097916854</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://fb.com/100004097916854</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1279,11 +1407,15 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B34" t="n">
-        <v>100004145616878</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://fb.com/100004145616878</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1304,11 +1436,15 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B35" t="n">
-        <v>100004217893232</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://fb.com/100004217893232</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1329,11 +1465,15 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B36" t="n">
-        <v>100004276505924</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://fb.com/100004276505924</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1354,11 +1494,15 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B37" t="n">
-        <v>100004361688688</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://fb.com/100004361688688</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1379,11 +1523,15 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B38" t="n">
-        <v>100004610869087</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://fb.com/100004610869087</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1404,11 +1552,15 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B39" t="n">
-        <v>100004647935023</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://fb.com/100004647935023</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1429,11 +1581,15 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B40" t="n">
-        <v>100004653733097</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://fb.com/100004653733097</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1454,11 +1610,15 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B41" t="n">
-        <v>100004703474691</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://fb.com/100004703474691</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1479,11 +1639,15 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B42" t="n">
-        <v>100004777623337</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://fb.com/100004777623337</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1504,11 +1668,15 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B43" t="n">
-        <v>100004784763113</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://fb.com/100004784763113</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1529,11 +1697,15 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B44" t="n">
-        <v>100004794720631</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://fb.com/100004794720631</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1554,11 +1726,15 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B45" t="n">
-        <v>100004973955325</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://fb.com/100004973955325</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1579,11 +1755,15 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B46" t="n">
-        <v>100005136847333</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://fb.com/100005136847333</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1604,11 +1784,15 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B47" t="n">
-        <v>100005139613879</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://fb.com/100005139613879</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1629,11 +1813,15 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B48" t="n">
-        <v>100005268063462</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://fb.com/100005268063462</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1654,11 +1842,15 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B49" t="n">
-        <v>100005392684223</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://fb.com/100005392684223</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1679,11 +1871,15 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B50" t="n">
-        <v>100005491840862</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://fb.com/100005491840862</t>
+        </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1704,11 +1900,15 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B51" t="n">
-        <v>100005633522267</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://fb.com/100005633522267</t>
+        </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1729,11 +1929,15 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B52" t="n">
-        <v>100005637257487</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://fb.com/100005637257487</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1754,11 +1958,15 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B53" t="n">
-        <v>100005677597063</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://fb.com/100005677597063</t>
+        </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1779,11 +1987,15 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B54" t="n">
-        <v>100006115891693</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://fb.com/100006115891693</t>
+        </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1804,11 +2016,15 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B55" t="n">
-        <v>100006118717026</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://fb.com/100006118717026</t>
+        </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1829,11 +2045,15 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B56" t="n">
-        <v>100006289146409</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://fb.com/100006289146409</t>
+        </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1854,11 +2074,15 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B57" t="n">
-        <v>100006521706111</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://fb.com/100006521706111</t>
+        </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1879,11 +2103,15 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B58" t="n">
-        <v>100006652847354</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://fb.com/100006652847354</t>
+        </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1904,11 +2132,15 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B59" t="n">
-        <v>100006670144973</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://fb.com/100006670144973</t>
+        </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1929,11 +2161,15 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B60" t="n">
-        <v>100006756849027</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://fb.com/100006756849027</t>
+        </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1954,11 +2190,15 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B61" t="n">
-        <v>100006817623884</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://fb.com/100006817623884</t>
+        </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1979,11 +2219,15 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B62" t="n">
-        <v>100006830074192</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://fb.com/100006830074192</t>
+        </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -2004,11 +2248,15 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B63" t="n">
-        <v>100006837570532</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://fb.com/100006837570532</t>
+        </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -2029,11 +2277,15 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B64" t="n">
-        <v>100006937595504</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://fb.com/100006937595504</t>
+        </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -2054,11 +2306,15 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B65" t="n">
-        <v>100006947190069</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://fb.com/100006947190069</t>
+        </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -2079,11 +2335,15 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B66" t="n">
-        <v>100006976179942</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://fb.com/100006976179942</t>
+        </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -2104,11 +2364,15 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B67" t="n">
-        <v>100007047344038</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://fb.com/100007047344038</t>
+        </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2129,11 +2393,15 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B68" t="n">
-        <v>100007048901256</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://fb.com/100007048901256</t>
+        </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2154,11 +2422,15 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B69" t="n">
-        <v>100007065009204</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://fb.com/100007065009204</t>
+        </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2179,11 +2451,15 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B70" t="n">
-        <v>100007125967411</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://fb.com/100007125967411</t>
+        </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2204,11 +2480,15 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B71" t="n">
-        <v>100007393141248</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://fb.com/100007393141248</t>
+        </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2229,11 +2509,15 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B72" t="n">
-        <v>100007906961089</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://fb.com/100007906961089</t>
+        </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2254,11 +2538,15 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B73" t="n">
-        <v>100008059786261</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://fb.com/100008059786261</t>
+        </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2279,11 +2567,15 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B74" t="n">
-        <v>100008163556607</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://fb.com/100008163556607</t>
+        </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2304,11 +2596,15 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B75" t="n">
-        <v>100008214310139</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://fb.com/100008214310139</t>
+        </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2329,11 +2625,15 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B76" t="n">
-        <v>100008449080812</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://fb.com/100008449080812</t>
+        </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2354,11 +2654,15 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B77" t="n">
-        <v>100009051381571</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://fb.com/100009051381571</t>
+        </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2379,11 +2683,15 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B78" t="n">
-        <v>100009120227602</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://fb.com/100009120227602</t>
+        </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2404,11 +2712,15 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B79" t="n">
-        <v>100009192909236</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://fb.com/100009192909236</t>
+        </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2429,11 +2741,15 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B80" t="n">
-        <v>100009203624898</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://fb.com/100009203624898</t>
+        </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2454,11 +2770,15 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B81" t="n">
-        <v>100009211338809</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://fb.com/100009211338809</t>
+        </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2479,11 +2799,15 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B82" t="n">
-        <v>100009227327736</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://fb.com/100009227327736</t>
+        </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2504,11 +2828,15 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B83" t="n">
-        <v>100009269525486</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://fb.com/100009269525486</t>
+        </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2529,11 +2857,15 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B84" t="n">
-        <v>100009564967985</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://fb.com/100009564967985</t>
+        </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2554,11 +2886,15 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B85" t="n">
-        <v>100009621214629</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://fb.com/100009621214629</t>
+        </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2579,11 +2915,15 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B86" t="n">
-        <v>100009951826932</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://fb.com/100009951826932</t>
+        </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2604,11 +2944,15 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B87" t="n">
-        <v>100010050949274</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://fb.com/100010050949274</t>
+        </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2629,11 +2973,15 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B88" t="n">
-        <v>100010261188644</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://fb.com/100010261188644</t>
+        </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2654,11 +3002,15 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B89" t="n">
-        <v>100010342988106</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://fb.com/100010342988106</t>
+        </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2679,11 +3031,15 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B90" t="n">
-        <v>100010357698576</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://fb.com/100010357698576</t>
+        </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2704,11 +3060,15 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B91" t="n">
-        <v>100010379254514</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://fb.com/100010379254514</t>
+        </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2729,11 +3089,15 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B92" t="n">
-        <v>100010442642879</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://fb.com/100010442642879</t>
+        </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2754,11 +3118,15 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B93" t="n">
-        <v>100010447053312</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://fb.com/100010447053312</t>
+        </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2779,11 +3147,15 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B94" t="n">
-        <v>100010730417525</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://fb.com/100010730417525</t>
+        </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2804,11 +3176,15 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B95" t="n">
-        <v>100010976191942</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://fb.com/100010976191942</t>
+        </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2829,11 +3205,15 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B96" t="n">
-        <v>100011035269425</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://fb.com/100011035269425</t>
+        </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2854,11 +3234,15 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B97" t="n">
-        <v>100011045044162</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://fb.com/100011045044162</t>
+        </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2879,11 +3263,15 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B98" t="n">
-        <v>100011274847914</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://fb.com/100011274847914</t>
+        </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2904,11 +3292,15 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B99" t="n">
-        <v>100011284994086</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://fb.com/100011284994086</t>
+        </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2929,11 +3321,15 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B100" t="n">
-        <v>100011411292206</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://fb.com/100011411292206</t>
+        </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -2954,11 +3350,15 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B101" t="n">
-        <v>100011457624896</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://fb.com/100011457624896</t>
+        </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2979,11 +3379,15 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B102" t="n">
-        <v>100011802979251</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://fb.com/100011802979251</t>
+        </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -3004,11 +3408,15 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B103" t="n">
-        <v>100012230803267</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://fb.com/100012230803267</t>
+        </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -3029,11 +3437,15 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B104" t="n">
-        <v>100012428972112</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://fb.com/100012428972112</t>
+        </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -3054,11 +3466,15 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B105" t="n">
-        <v>100012485895146</v>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://fb.com/100012485895146</t>
+        </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -3079,11 +3495,15 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B106" t="n">
-        <v>100012582128576</v>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://fb.com/100012582128576</t>
+        </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -3104,11 +3524,15 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B107" t="n">
-        <v>100012638349069</v>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://fb.com/100012638349069</t>
+        </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -3129,11 +3553,15 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B108" t="n">
-        <v>100012723545384</v>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://fb.com/100012723545384</t>
+        </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -3154,11 +3582,15 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B109" t="n">
-        <v>100012765723944</v>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://fb.com/100012765723944</t>
+        </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -3179,11 +3611,15 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B110" t="n">
-        <v>100012879302282</v>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://fb.com/100012879302282</t>
+        </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -3204,11 +3640,15 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B111" t="n">
-        <v>100012908564777</v>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://fb.com/100012908564777</t>
+        </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -3229,11 +3669,15 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B112" t="n">
-        <v>100012942763850</v>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://fb.com/100012942763850</t>
+        </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -3254,11 +3698,15 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B113" t="n">
-        <v>100013191077448</v>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://fb.com/100013191077448</t>
+        </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -3279,11 +3727,15 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B114" t="n">
-        <v>100013218226985</v>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://fb.com/100013218226985</t>
+        </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -3304,11 +3756,15 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B115" t="n">
-        <v>100013859171682</v>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://fb.com/100013859171682</t>
+        </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -3329,11 +3785,15 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B116" t="n">
-        <v>100014085197768</v>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://fb.com/100014085197768</t>
+        </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -3354,11 +3814,15 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B117" t="n">
-        <v>100014220572144</v>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://fb.com/100014220572144</t>
+        </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -3379,11 +3843,15 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B118" t="n">
-        <v>100014689426933</v>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://fb.com/100014689426933</t>
+        </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -3404,11 +3872,15 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B119" t="n">
-        <v>100014779802980</v>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://fb.com/100014779802980</t>
+        </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -3429,11 +3901,15 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B120" t="n">
-        <v>100015041977906</v>
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://fb.com/100015041977906</t>
+        </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -3454,11 +3930,15 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B121" t="n">
-        <v>100015345616651</v>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://fb.com/100015345616651</t>
+        </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -3479,11 +3959,15 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B122" t="n">
-        <v>100015495758993</v>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://fb.com/100015495758993</t>
+        </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -3504,11 +3988,15 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B123" t="n">
-        <v>100015628507376</v>
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://fb.com/100015628507376</t>
+        </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -3529,11 +4017,15 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B124" t="n">
-        <v>100015783034514</v>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://fb.com/100015783034514</t>
+        </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -3554,11 +4046,15 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B125" t="n">
-        <v>100016126931444</v>
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://fb.com/100016126931444</t>
+        </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -3579,11 +4075,15 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B126" t="n">
-        <v>100016838623785</v>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://fb.com/100016838623785</t>
+        </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -3604,11 +4104,15 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B127" t="n">
-        <v>100016859981465</v>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://fb.com/100016859981465</t>
+        </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -3629,11 +4133,15 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B128" t="n">
-        <v>100016905580301</v>
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://fb.com/100016905580301</t>
+        </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -3654,11 +4162,15 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B129" t="n">
-        <v>100016983367617</v>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://fb.com/100016983367617</t>
+        </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -3679,11 +4191,15 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B130" t="n">
-        <v>100017932839656</v>
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://fb.com/100017932839656</t>
+        </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -3704,11 +4220,15 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B131" t="n">
-        <v>100018930477112</v>
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://fb.com/100018930477112</t>
+        </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -3729,11 +4249,15 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B132" t="n">
-        <v>100019164573834</v>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://fb.com/100019164573834</t>
+        </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -3754,11 +4278,15 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B133" t="n">
-        <v>100021135570619</v>
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://fb.com/100021135570619</t>
+        </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -3779,11 +4307,15 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B134" t="n">
-        <v>100021571293926</v>
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://fb.com/100021571293926</t>
+        </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -3804,11 +4336,15 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B135" t="n">
-        <v>100021943505097</v>
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://fb.com/100021943505097</t>
+        </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -3829,11 +4365,15 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B136" t="n">
-        <v>100022268051137</v>
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://fb.com/100022268051137</t>
+        </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -3854,11 +4394,15 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B137" t="n">
-        <v>100022868931321</v>
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://fb.com/100022868931321</t>
+        </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -3879,11 +4423,15 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B138" t="n">
-        <v>100022985012275</v>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://fb.com/100022985012275</t>
+        </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -3904,11 +4452,15 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B139" t="n">
-        <v>100023064098200</v>
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://fb.com/100023064098200</t>
+        </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -3929,11 +4481,15 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B140" t="n">
-        <v>100023137251493</v>
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://fb.com/100023137251493</t>
+        </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -3954,11 +4510,15 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B141" t="n">
-        <v>100023619221330</v>
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://fb.com/100023619221330</t>
+        </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -3979,11 +4539,15 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B142" t="n">
-        <v>100024420465169</v>
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://fb.com/100024420465169</t>
+        </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -4004,11 +4568,15 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B143" t="n">
-        <v>100024900261679</v>
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://fb.com/100024900261679</t>
+        </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -4037,11 +4605,15 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B144" t="n">
-        <v>100025225127031</v>
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://fb.com/100025225127031</t>
+        </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -4062,11 +4634,15 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B145" t="n">
-        <v>100025350872951</v>
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://fb.com/100025350872951</t>
+        </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -4087,11 +4663,15 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B146" t="n">
-        <v>100025385717500</v>
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://fb.com/100025385717500</t>
+        </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -4112,11 +4692,15 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B147" t="n">
-        <v>100025403262092</v>
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://fb.com/100025403262092</t>
+        </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -4145,11 +4729,15 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B148" t="n">
-        <v>100025497171351</v>
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://fb.com/100025497171351</t>
+        </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -4170,11 +4758,15 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B149" t="n">
-        <v>100025934571757</v>
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>https://fb.com/100025934571757</t>
+        </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -4195,11 +4787,15 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B150" t="n">
-        <v>100026582088884</v>
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://fb.com/100026582088884</t>
+        </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -4220,11 +4816,15 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B151" t="n">
-        <v>100027171516014</v>
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://fb.com/100027171516014</t>
+        </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -4245,11 +4845,15 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B152" t="n">
-        <v>100027337485805</v>
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://fb.com/100027337485805</t>
+        </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -4270,11 +4874,15 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B153" t="n">
-        <v>100027421442972</v>
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://fb.com/100027421442972</t>
+        </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -4295,11 +4903,15 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B154" t="n">
-        <v>100027659977832</v>
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://fb.com/100027659977832</t>
+        </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -4320,11 +4932,15 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B155" t="n">
-        <v>100027699165436</v>
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://fb.com/100027699165436</t>
+        </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -4345,11 +4961,15 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B156" t="n">
-        <v>100028305903565</v>
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>https://fb.com/100028305903565</t>
+        </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -4370,11 +4990,15 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B157" t="n">
-        <v>100028796567802</v>
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>https://fb.com/100028796567802</t>
+        </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -4395,11 +5019,15 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B158" t="n">
-        <v>100029086483452</v>
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>https://fb.com/100029086483452</t>
+        </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -4420,11 +5048,15 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B159" t="n">
-        <v>100029420321335</v>
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>https://fb.com/100029420321335</t>
+        </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -4445,11 +5077,15 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B160" t="n">
-        <v>100029983223153</v>
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>https://fb.com/100029983223153</t>
+        </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -4470,11 +5106,15 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B161" t="n">
-        <v>100030063376656</v>
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>https://fb.com/100030063376656</t>
+        </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -4503,11 +5143,15 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B162" t="n">
-        <v>100030468996291</v>
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>https://fb.com/100030468996291</t>
+        </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -4528,11 +5172,15 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B163" t="n">
-        <v>100030954739224</v>
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>https://fb.com/100030954739224</t>
+        </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -4553,11 +5201,15 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B164" t="n">
-        <v>100033703333884</v>
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>https://fb.com/100033703333884</t>
+        </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -4578,11 +5230,15 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B165" t="n">
-        <v>100033946636162</v>
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>https://fb.com/100033946636162</t>
+        </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -4603,11 +5259,15 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B166" t="n">
-        <v>100033962419923</v>
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>https://fb.com/100033962419923</t>
+        </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -4628,11 +5288,15 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B167" t="n">
-        <v>100033970422045</v>
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>https://fb.com/100033970422045</t>
+        </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -4653,11 +5317,15 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B168" t="n">
-        <v>100034426006702</v>
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>https://fb.com/100034426006702</t>
+        </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -4678,11 +5346,15 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B169" t="n">
-        <v>100035161761130</v>
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>https://fb.com/100035161761130</t>
+        </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -4703,11 +5375,15 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B170" t="n">
-        <v>100035183624568</v>
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>https://fb.com/100035183624568</t>
+        </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -4728,11 +5404,15 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B171" t="n">
-        <v>100035289604545</v>
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>https://fb.com/100035289604545</t>
+        </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -4753,11 +5433,15 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B172" t="n">
-        <v>100035590062495</v>
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>https://fb.com/100035590062495</t>
+        </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -4778,11 +5462,15 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B173" t="n">
-        <v>100035660660708</v>
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>https://fb.com/100035660660708</t>
+        </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -4803,11 +5491,15 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B174" t="n">
-        <v>100035800042142</v>
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>https://fb.com/100035800042142</t>
+        </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -4828,11 +5520,15 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B175" t="n">
-        <v>100036678980488</v>
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>https://fb.com/100036678980488</t>
+        </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -4853,11 +5549,15 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B176" t="n">
-        <v>100037678365806</v>
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>https://fb.com/100037678365806</t>
+        </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -4878,11 +5578,15 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B177" t="n">
-        <v>100037800499298</v>
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>https://fb.com/100037800499298</t>
+        </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -4903,11 +5607,15 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B178" t="n">
-        <v>100038513931498</v>
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>https://fb.com/100038513931498</t>
+        </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -4928,11 +5636,15 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B179" t="n">
-        <v>100039008991290</v>
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://fb.com/100039008991290</t>
+        </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -4953,11 +5665,15 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B180" t="n">
-        <v>100039143602508</v>
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>https://fb.com/100039143602508</t>
+        </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -4978,11 +5694,15 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B181" t="n">
-        <v>100039619865520</v>
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>https://fb.com/100039619865520</t>
+        </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -5003,11 +5723,15 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B182" t="n">
-        <v>100039662739420</v>
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>https://fb.com/100039662739420</t>
+        </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -5028,11 +5752,15 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B183" t="n">
-        <v>100039788749624</v>
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>https://fb.com/100039788749624</t>
+        </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -5053,11 +5781,15 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B184" t="n">
-        <v>100039989700488</v>
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>https://fb.com/100039989700488</t>
+        </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -5078,11 +5810,15 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B185" t="n">
-        <v>100040604792893</v>
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://fb.com/100040604792893</t>
+        </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -5103,11 +5839,15 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B186" t="n">
-        <v>100040623980320</v>
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>https://fb.com/100040623980320</t>
+        </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -5128,11 +5868,15 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B187" t="n">
-        <v>100040654551866</v>
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>https://fb.com/100040654551866</t>
+        </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -5153,11 +5897,15 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B188" t="n">
-        <v>100041089423361</v>
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>https://fb.com/100041089423361</t>
+        </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -5178,11 +5926,15 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B189" t="n">
-        <v>100041130846289</v>
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>https://fb.com/100041130846289</t>
+        </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -5203,11 +5955,15 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B190" t="n">
-        <v>100041695895101</v>
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>https://fb.com/100041695895101</t>
+        </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -5228,11 +5984,15 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B191" t="n">
-        <v>100041908237317</v>
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>https://fb.com/100041908237317</t>
+        </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -5253,11 +6013,15 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B192" t="n">
-        <v>100042183976486</v>
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>https://fb.com/100042183976486</t>
+        </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -5278,11 +6042,15 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B193" t="n">
-        <v>100042834832716</v>
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>https://fb.com/100042834832716</t>
+        </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -5303,11 +6071,15 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B194" t="n">
-        <v>100043942809110</v>
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>https://fb.com/100043942809110</t>
+        </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -5328,11 +6100,15 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B195" t="n">
-        <v>100044047342917</v>
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>https://fb.com/100044047342917</t>
+        </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -5353,11 +6129,15 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B196" t="n">
-        <v>100046826749849</v>
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>https://fb.com/100046826749849</t>
+        </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -5378,11 +6158,15 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B197" t="n">
-        <v>100046952402139</v>
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>https://fb.com/100046952402139</t>
+        </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -5403,11 +6187,15 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B198" t="n">
-        <v>100047627178028</v>
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>https://fb.com/100047627178028</t>
+        </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -5428,11 +6216,15 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B199" t="n">
-        <v>100048131331860</v>
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>https://fb.com/100048131331860</t>
+        </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -5453,11 +6245,15 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B200" t="n">
-        <v>100049052593118</v>
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>https://fb.com/100049052593118</t>
+        </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -5478,11 +6274,15 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B201" t="n">
-        <v>100049731796881</v>
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>https://fb.com/100049731796881</t>
+        </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -5503,11 +6303,15 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B202" t="n">
-        <v>100050094583446</v>
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>https://fb.com/100050094583446</t>
+        </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -5528,11 +6332,15 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B203" t="n">
-        <v>100050526608204</v>
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>https://fb.com/100050526608204</t>
+        </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -5553,11 +6361,15 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B204" t="n">
-        <v>100051867139176</v>
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>https://fb.com/100051867139176</t>
+        </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -5578,11 +6390,15 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B205" t="n">
-        <v>100052137044125</v>
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>https://fb.com/100052137044125</t>
+        </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -5603,11 +6419,15 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B206" t="n">
-        <v>100052638335129</v>
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>https://fb.com/100052638335129</t>
+        </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -5628,11 +6448,15 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B207" t="n">
-        <v>100053121938685</v>
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>https://fb.com/100053121938685</t>
+        </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -5653,11 +6477,15 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B208" t="n">
-        <v>100053571020141</v>
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>https://fb.com/100053571020141</t>
+        </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -5678,11 +6506,15 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B209" t="n">
-        <v>100053865698901</v>
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>https://fb.com/100053865698901</t>
+        </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -5703,11 +6535,15 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B210" t="n">
-        <v>100054605130385</v>
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>https://fb.com/100054605130385</t>
+        </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -5728,11 +6564,15 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B211" t="n">
-        <v>100055234050145</v>
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>https://fb.com/100055234050145</t>
+        </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -5753,11 +6593,15 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B212" t="n">
-        <v>100055302277409</v>
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>https://fb.com/100055302277409</t>
+        </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -5778,11 +6622,15 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B213" t="n">
-        <v>100056021134518</v>
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>https://fb.com/100056021134518</t>
+        </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -5803,11 +6651,15 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B214" t="n">
-        <v>100058607215701</v>
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>https://fb.com/100058607215701</t>
+        </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -5828,11 +6680,15 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B215" t="n">
-        <v>100059131422783</v>
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>https://fb.com/100059131422783</t>
+        </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -5853,11 +6709,15 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B216" t="n">
-        <v>100059262625180</v>
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>https://fb.com/100059262625180</t>
+        </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -5878,11 +6738,15 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B217" t="n">
-        <v>100059894521738</v>
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>https://fb.com/100059894521738</t>
+        </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -5903,11 +6767,15 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B218" t="n">
-        <v>100064197766702</v>
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>https://fb.com/100064197766702</t>
+        </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -5928,11 +6796,15 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B219" t="n">
-        <v>100064799996768</v>
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>https://fb.com/100064799996768</t>
+        </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -5953,11 +6825,15 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B220" t="n">
-        <v>100066231774504</v>
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>https://fb.com/100066231774504</t>
+        </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -5978,11 +6854,15 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B221" t="n">
-        <v>100067622597881</v>
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>https://fb.com/100067622597881</t>
+        </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -6003,11 +6883,15 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B222" t="n">
-        <v>100069395921315</v>
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>https://fb.com/100069395921315</t>
+        </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -6028,11 +6912,15 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B223" t="n">
-        <v>100069751911458</v>
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>https://fb.com/100069751911458</t>
+        </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -6053,11 +6941,15 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B224" t="n">
-        <v>100069929829036</v>
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>https://fb.com/100069929829036</t>
+        </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -6086,11 +6978,15 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B225" t="n">
-        <v>100070426762528</v>
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>https://fb.com/100070426762528</t>
+        </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -6111,11 +7007,15 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B226" t="n">
-        <v>100070680863915</v>
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>https://fb.com/100070680863915</t>
+        </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -6136,11 +7036,15 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B227" t="n">
-        <v>100070968453543</v>
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>https://fb.com/100070968453543</t>
+        </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -6161,11 +7065,15 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B228" t="n">
-        <v>100073494498929</v>
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>https://fb.com/100073494498929</t>
+        </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -6186,11 +7094,15 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B229" t="n">
-        <v>100074110517348</v>
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>https://fb.com/100074110517348</t>
+        </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -6211,11 +7123,15 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B230" t="n">
-        <v>100074168262960</v>
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>https://fb.com/100074168262960</t>
+        </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -6236,11 +7152,15 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B231" t="n">
-        <v>100074430755875</v>
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>https://fb.com/100074430755875</t>
+        </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -6261,11 +7181,15 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B232" t="n">
-        <v>100075460459549</v>
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>https://fb.com/100075460459549</t>
+        </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -6286,11 +7210,15 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B233" t="n">
-        <v>100076293086761</v>
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>https://fb.com/100076293086761</t>
+        </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -6311,11 +7239,15 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B234" t="n">
-        <v>100077094530116</v>
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>https://fb.com/100077094530116</t>
+        </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -6336,11 +7268,15 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B235" t="n">
-        <v>100077259909177</v>
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>https://fb.com/100077259909177</t>
+        </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -6361,11 +7297,15 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B236" t="n">
-        <v>100080221710239</v>
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>https://fb.com/100080221710239</t>
+        </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -6394,11 +7334,15 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B237" t="n">
-        <v>100082323010821</v>
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>https://fb.com/100082323010821</t>
+        </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -6419,11 +7363,15 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B238" t="n">
-        <v>100082785705385</v>
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>https://fb.com/100082785705385</t>
+        </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -6444,11 +7392,15 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B239" t="n">
-        <v>100082947176198</v>
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>https://fb.com/100082947176198</t>
+        </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -6469,11 +7421,15 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B240" t="n">
-        <v>100083920307651</v>
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>https://fb.com/100083920307651</t>
+        </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -6494,11 +7450,15 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B241" t="n">
-        <v>100084298400277</v>
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>https://fb.com/100084298400277</t>
+        </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -6519,11 +7479,15 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B242" t="n">
-        <v>100084854944820</v>
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>https://fb.com/100084854944820</t>
+        </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -6544,11 +7508,15 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B243" t="n">
-        <v>100086403737705</v>
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>https://fb.com/100086403737705</t>
+        </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -6569,11 +7537,15 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B244" t="n">
-        <v>100087925266959</v>
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>https://fb.com/100087925266959</t>
+        </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -6594,11 +7566,15 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B245" t="n">
-        <v>100088108594526</v>
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>https://fb.com/100088108594526</t>
+        </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -6619,11 +7595,15 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B246" t="n">
-        <v>100088446097907</v>
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>https://fb.com/100088446097907</t>
+        </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -6644,11 +7624,15 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B247" t="n">
-        <v>100089548622226</v>
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>https://fb.com/100089548622226</t>
+        </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -6669,11 +7653,15 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B248" t="n">
-        <v>100093703999412</v>
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>https://fb.com/100093703999412</t>
+        </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -6694,11 +7682,15 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B249" t="n">
-        <v>100094973584662</v>
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>https://fb.com/100094973584662</t>
+        </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -6719,11 +7711,15 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B250" t="n">
-        <v>100094975971615</v>
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>https://fb.com/100094975971615</t>
+        </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -6744,11 +7740,15 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B251" t="n">
-        <v>100095363325100</v>
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>https://fb.com/100095363325100</t>
+        </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -6769,11 +7769,15 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B252" t="n">
-        <v>100029052345440</v>
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>https://fb.com/100029052345440</t>
+        </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -6798,11 +7802,15 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B253" t="n">
-        <v>100004242074480</v>
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>https://fb.com/100004242074480</t>
+        </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -6827,11 +7835,15 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B254" t="n">
-        <v>61550792812064</v>
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>https://fb.com/61550792812064</t>
+        </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -6856,11 +7868,15 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B255" t="n">
-        <v>100040516262194</v>
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>https://fb.com/100040516262194</t>
+        </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -6885,11 +7901,15 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B256" t="n">
-        <v>100010042208116</v>
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>https://fb.com/100010042208116</t>
+        </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -6914,11 +7934,15 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B257" t="n">
-        <v>100024994760875</v>
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>https://fb.com/100024994760875</t>
+        </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -6943,11 +7967,15 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B258" t="n">
-        <v>100010647168804</v>
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>https://fb.com/100010647168804</t>
+        </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -6972,11 +8000,15 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B259" t="n">
-        <v>100021967322652</v>
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>https://fb.com/100021967322652</t>
+        </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -7001,11 +8033,15 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B260" t="n">
-        <v>100000267096952</v>
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>https://fb.com/100000267096952</t>
+        </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -7030,11 +8066,15 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B261" t="n">
-        <v>100004876089859</v>
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>https://fb.com/100004876089859</t>
+        </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -7059,11 +8099,15 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B262" t="n">
-        <v>100057156347169</v>
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>https://fb.com/100057156347169</t>
+        </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -7088,11 +8132,15 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B263" t="n">
-        <v>100070944039856</v>
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>https://fb.com/100070944039856</t>
+        </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -7117,11 +8165,15 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B264" t="n">
-        <v>100071908999691</v>
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>https://fb.com/100071908999691</t>
+        </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -7146,11 +8198,15 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B265" t="n">
-        <v>100010728737658</v>
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>https://fb.com/100010728737658</t>
+        </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -7175,11 +8231,15 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B266" t="n">
-        <v>100004261862325</v>
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>https://fb.com/100004261862325</t>
+        </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -7204,11 +8264,15 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B267" t="n">
-        <v>100006526084541</v>
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>https://fb.com/100006526084541</t>
+        </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -7233,11 +8297,15 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B268" t="n">
-        <v>100032432779465</v>
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>https://fb.com/100032432779465</t>
+        </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -7262,11 +8330,15 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B269" t="n">
-        <v>100003209168142</v>
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>https://fb.com/100003209168142</t>
+        </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -7291,11 +8363,15 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B270" t="n">
-        <v>100003835414091</v>
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>https://fb.com/100003835414091</t>
+        </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -7320,11 +8396,15 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B271" t="n">
-        <v>61577226706091</v>
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>https://fb.com/61577226706091</t>
+        </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -7349,11 +8429,15 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B272" t="n">
-        <v>100040272370444</v>
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>https://fb.com/100040272370444</t>
+        </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -7378,11 +8462,15 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B273" t="n">
-        <v>100008289518541</v>
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>https://fb.com/100008289518541</t>
+        </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -7407,11 +8495,15 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B274" t="n">
-        <v>61557886149283</v>
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>https://fb.com/61557886149283</t>
+        </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -7436,11 +8528,15 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="n">
-        <v>1844126952993352</v>
-      </c>
-      <c r="B275" t="n">
-        <v>100006708182328</v>
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>https://fb.com/1844126952993352</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>https://fb.com/100006708182328</t>
+        </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -7465,11 +8561,15 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="n">
-        <v>2057753665043863</v>
-      </c>
-      <c r="B276" t="n">
-        <v>100088251451984</v>
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>https://fb.com/2057753665043863</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>https://fb.com/100088251451984</t>
+        </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -7486,11 +8586,15 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="n">
-        <v>2679930265739227</v>
-      </c>
-      <c r="B277" t="n">
-        <v>100022209189651</v>
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>https://fb.com/2679930265739227</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>https://fb.com/100022209189651</t>
+        </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -7511,11 +8615,15 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="n">
-        <v>2679930265739227</v>
-      </c>
-      <c r="B278" t="n">
-        <v>100024263027329</v>
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>https://fb.com/2679930265739227</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>https://fb.com/100024263027329</t>
+        </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -7536,11 +8644,15 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="n">
-        <v>2679930265739227</v>
-      </c>
-      <c r="B279" t="n">
-        <v>899172172633430</v>
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>https://fb.com/2679930265739227</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>https://fb.com/899172172633430</t>
+        </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -7561,11 +8673,15 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="n">
-        <v>2679930265739227</v>
-      </c>
-      <c r="B280" t="n">
-        <v>1902175724060295</v>
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>https://fb.com/2679930265739227</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>https://fb.com/1902175724060295</t>
+        </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -7586,11 +8702,15 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="n">
-        <v>2679930265739227</v>
-      </c>
-      <c r="B281" t="n">
-        <v>2309795009497476</v>
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>https://fb.com/2679930265739227</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>https://fb.com/2309795009497476</t>
+        </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -7611,11 +8731,15 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="n">
-        <v>1856605311646326</v>
-      </c>
-      <c r="B282" t="n">
-        <v>100004986100383</v>
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>https://fb.com/1856605311646326</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>https://fb.com/100004986100383</t>
+        </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -7636,11 +8760,15 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="n">
-        <v>1856605311646326</v>
-      </c>
-      <c r="B283" t="n">
-        <v>100006501578894</v>
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>https://fb.com/1856605311646326</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>https://fb.com/100006501578894</t>
+        </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -7661,11 +8789,15 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="n">
-        <v>1856605311646326</v>
-      </c>
-      <c r="B284" t="n">
-        <v>100030348092482</v>
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>https://fb.com/1856605311646326</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>https://fb.com/100030348092482</t>
+        </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -7695,11 +8827,15 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="n">
-        <v>1856605311646326</v>
-      </c>
-      <c r="B285" t="n">
-        <v>100041450266645</v>
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>https://fb.com/1856605311646326</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>https://fb.com/100041450266645</t>
+        </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -7720,11 +8856,15 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="n">
-        <v>1856605311646326</v>
-      </c>
-      <c r="B286" t="n">
-        <v>100073661018030</v>
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>https://fb.com/1856605311646326</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>https://fb.com/100073661018030</t>
+        </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -7745,11 +8885,15 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="n">
-        <v>1856605311646326</v>
-      </c>
-      <c r="B287" t="n">
-        <v>100075531444084</v>
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>https://fb.com/1856605311646326</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>https://fb.com/100075531444084</t>
+        </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -7770,11 +8914,15 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="n">
-        <v>1856605311646326</v>
-      </c>
-      <c r="B288" t="n">
-        <v>100018480905904</v>
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>https://fb.com/1856605311646326</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>https://fb.com/100018480905904</t>
+        </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -7799,11 +8947,15 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="n">
-        <v>1856605311646326</v>
-      </c>
-      <c r="B289" t="n">
-        <v>100054687936885</v>
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>https://fb.com/1856605311646326</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>https://fb.com/100054687936885</t>
+        </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -7828,11 +8980,15 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="n">
-        <v>1856605311646326</v>
-      </c>
-      <c r="B290" t="n">
-        <v>100010590550544</v>
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>https://fb.com/1856605311646326</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>https://fb.com/100010590550544</t>
+        </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -7857,11 +9013,15 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="n">
-        <v>1.222740785480254e+17</v>
-      </c>
-      <c r="B291" t="n">
-        <v>100006260855518</v>
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>https://fb.com/122274078548025441</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>https://fb.com/100006260855518</t>
+        </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
@@ -7882,11 +9042,15 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="n">
-        <v>1.222740785480254e+17</v>
-      </c>
-      <c r="B292" t="n">
-        <v>100007442765062</v>
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>https://fb.com/122274078548025441</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>https://fb.com/100007442765062</t>
+        </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -7915,11 +9079,15 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="n">
-        <v>1.222740785480254e+17</v>
-      </c>
-      <c r="B293" t="n">
-        <v>100012059594447</v>
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>https://fb.com/122274078548025441</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>https://fb.com/100012059594447</t>
+        </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -7940,11 +9108,15 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="n">
-        <v>1.222740785480254e+17</v>
-      </c>
-      <c r="B294" t="n">
-        <v>100022872291370</v>
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>https://fb.com/122274078548025441</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>https://fb.com/100022872291370</t>
+        </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
@@ -7965,11 +9137,15 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="n">
-        <v>1.222740785480254e+17</v>
-      </c>
-      <c r="B295" t="n">
-        <v>100062389371940</v>
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>https://fb.com/122274078548025441</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>https://fb.com/100062389371940</t>
+        </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -7998,11 +9174,15 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="n">
-        <v>1.222740785480254e+17</v>
-      </c>
-      <c r="B296" t="n">
-        <v>100093692925398</v>
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>https://fb.com/122274078548025441</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>https://fb.com/100093692925398</t>
+        </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -8031,11 +9211,15 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="n">
-        <v>2.506970706606173e+16</v>
-      </c>
-      <c r="B297" t="n">
-        <v>100012448446571</v>
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>https://fb.com/25069707066061726</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>https://fb.com/100012448446571</t>
+        </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -8052,11 +9236,15 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="n">
-        <v>2234274166982406</v>
-      </c>
-      <c r="B298" t="n">
-        <v>61550936585677</v>
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>https://fb.com/2234274166982406</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>https://fb.com/61550936585677</t>
+        </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
@@ -8077,11 +9265,15 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="n">
-        <v>2234274166982406</v>
-      </c>
-      <c r="B299" t="n">
-        <v>61584199601428</v>
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>https://fb.com/2234274166982406</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>https://fb.com/61584199601428</t>
+        </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
@@ -8102,11 +9294,15 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="n">
-        <v>2234274166982406</v>
-      </c>
-      <c r="B300" t="n">
-        <v>61584342713421</v>
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>https://fb.com/2234274166982406</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>https://fb.com/61584342713421</t>
+        </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -8127,11 +9323,15 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="n">
-        <v>2234274166982406</v>
-      </c>
-      <c r="B301" t="n">
-        <v>100009827623777</v>
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>https://fb.com/2234274166982406</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>https://fb.com/100009827623777</t>
+        </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -8152,11 +9352,15 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="n">
-        <v>2234274166982406</v>
-      </c>
-      <c r="B302" t="n">
-        <v>100010354697380</v>
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>https://fb.com/2234274166982406</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>https://fb.com/100010354697380</t>
+        </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -8177,11 +9381,15 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="n">
-        <v>2234274166982406</v>
-      </c>
-      <c r="B303" t="n">
-        <v>100012357483064</v>
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>https://fb.com/2234274166982406</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>https://fb.com/100012357483064</t>
+        </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -8210,11 +9418,15 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="n">
-        <v>2234274166982406</v>
-      </c>
-      <c r="B304" t="n">
-        <v>100072723401742</v>
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>https://fb.com/2234274166982406</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>https://fb.com/100072723401742</t>
+        </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -8243,11 +9455,15 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="n">
-        <v>2234274166982406</v>
-      </c>
-      <c r="B305" t="n">
-        <v>729578403108605</v>
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>https://fb.com/2234274166982406</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>https://fb.com/729578403108605</t>
+        </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
@@ -8268,11 +9484,15 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="n">
-        <v>2234274166982406</v>
-      </c>
-      <c r="B306" t="n">
-        <v>100013871047877</v>
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>https://fb.com/2234274166982406</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>https://fb.com/100013871047877</t>
+        </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
@@ -8297,11 +9517,15 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="n">
-        <v>2234274166982406</v>
-      </c>
-      <c r="B307" t="n">
-        <v>100044959711397</v>
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>https://fb.com/2234274166982406</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>https://fb.com/100044959711397</t>
+        </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -8326,11 +9550,15 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="n">
-        <v>849309401063172</v>
-      </c>
-      <c r="B308" t="n">
-        <v>100023335335558</v>
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>https://fb.com/849309401063172</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>https://fb.com/100023335335558</t>
+        </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -8351,11 +9579,15 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="n">
-        <v>849309401063172</v>
-      </c>
-      <c r="B309" t="n">
-        <v>61553449855644</v>
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>https://fb.com/849309401063172</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>https://fb.com/61553449855644</t>
+        </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
@@ -8380,11 +9612,15 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="n">
-        <v>849309401063172</v>
-      </c>
-      <c r="B310" t="n">
-        <v>100075317526191</v>
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>https://fb.com/849309401063172</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>https://fb.com/100075317526191</t>
+        </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
@@ -8409,11 +9645,15 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="n">
-        <v>849309401063172</v>
-      </c>
-      <c r="B311" t="n">
-        <v>100028703760308</v>
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>https://fb.com/849309401063172</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>https://fb.com/100028703760308</t>
+        </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
@@ -8438,11 +9678,15 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="n">
-        <v>849309401063172</v>
-      </c>
-      <c r="B312" t="n">
-        <v>61582467537304</v>
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>https://fb.com/849309401063172</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>https://fb.com/61582467537304</t>
+        </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
@@ -8467,11 +9711,15 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="n">
-        <v>1487637322676802</v>
-      </c>
-      <c r="B313" t="n">
-        <v>61553468195173</v>
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>https://fb.com/1487637322676802</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>https://fb.com/61553468195173</t>
+        </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
@@ -8492,11 +9740,15 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="n">
-        <v>1487637322676802</v>
-      </c>
-      <c r="B314" t="n">
-        <v>100054919865552</v>
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>https://fb.com/1487637322676802</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>https://fb.com/100054919865552</t>
+        </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
@@ -8517,11 +9769,15 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="n">
-        <v>1487637322676802</v>
-      </c>
-      <c r="B315" t="n">
-        <v>100066440790269</v>
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>https://fb.com/1487637322676802</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>https://fb.com/100066440790269</t>
+        </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
@@ -8542,11 +9798,15 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="n">
-        <v>1487637322676802</v>
-      </c>
-      <c r="B316" t="n">
-        <v>100073142079996</v>
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>https://fb.com/1487637322676802</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>https://fb.com/100073142079996</t>
+        </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
@@ -8571,11 +9831,15 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="n">
-        <v>2234267693649720</v>
-      </c>
-      <c r="B317" t="n">
-        <v>61573736045066</v>
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>https://fb.com/2234267693649720</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>https://fb.com/61573736045066</t>
+        </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
@@ -8596,11 +9860,15 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="n">
-        <v>2234267693649720</v>
-      </c>
-      <c r="B318" t="n">
-        <v>61583119349532</v>
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>https://fb.com/2234267693649720</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>https://fb.com/61583119349532</t>
+        </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -8629,11 +9897,15 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="n">
-        <v>2234267693649720</v>
-      </c>
-      <c r="B319" t="n">
-        <v>61584893576141</v>
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>https://fb.com/2234267693649720</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>https://fb.com/61584893576141</t>
+        </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
@@ -8654,11 +9926,15 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="n">
-        <v>2234267693649720</v>
-      </c>
-      <c r="B320" t="n">
-        <v>100010788310208</v>
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>https://fb.com/2234267693649720</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>https://fb.com/100010788310208</t>
+        </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
@@ -8687,11 +9963,15 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="n">
-        <v>2234267693649720</v>
-      </c>
-      <c r="B321" t="n">
-        <v>100031200399945</v>
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>https://fb.com/2234267693649720</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>https://fb.com/100031200399945</t>
+        </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
@@ -8712,11 +9992,15 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="n">
-        <v>2234267693649720</v>
-      </c>
-      <c r="B322" t="n">
-        <v>100076239005590</v>
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>https://fb.com/2234267693649720</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>https://fb.com/100076239005590</t>
+        </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
@@ -8737,11 +10021,15 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="n">
-        <v>2234267693649720</v>
-      </c>
-      <c r="B323" t="n">
-        <v>100088168475226</v>
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>https://fb.com/2234267693649720</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>https://fb.com/100088168475226</t>
+        </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
@@ -8762,11 +10050,15 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="n">
-        <v>2234267693649720</v>
-      </c>
-      <c r="B324" t="n">
-        <v>100005068997479</v>
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>https://fb.com/2234267693649720</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>https://fb.com/100005068997479</t>
+        </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
@@ -8791,11 +10083,15 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="n">
-        <v>2234267693649720</v>
-      </c>
-      <c r="B325" t="n">
-        <v>100003775670570</v>
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>https://fb.com/2234267693649720</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>https://fb.com/100003775670570</t>
+        </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
@@ -8820,11 +10116,15 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="n">
-        <v>2234267693649720</v>
-      </c>
-      <c r="B326" t="n">
-        <v>61576846514790</v>
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>https://fb.com/2234267693649720</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>https://fb.com/61576846514790</t>
+        </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
@@ -8849,11 +10149,15 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="n">
-        <v>2234267693649720</v>
-      </c>
-      <c r="B327" t="n">
-        <v>100003236496469</v>
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>https://fb.com/2234267693649720</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>https://fb.com/100003236496469</t>
+        </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
@@ -8878,11 +10182,15 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="n">
-        <v>2234267693649720</v>
-      </c>
-      <c r="B328" t="n">
-        <v>100061773847169</v>
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>https://fb.com/2234267693649720</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>https://fb.com/100061773847169</t>
+        </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
@@ -8907,11 +10215,15 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="n">
-        <v>2234267693649720</v>
-      </c>
-      <c r="B329" t="n">
-        <v>61578560866574</v>
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>https://fb.com/2234267693649720</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>https://fb.com/61578560866574</t>
+        </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
@@ -8936,11 +10248,15 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="n">
-        <v>2234267693649720</v>
-      </c>
-      <c r="B330" t="n">
-        <v>100084547593156</v>
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>https://fb.com/2234267693649720</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>https://fb.com/100084547593156</t>
+        </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
@@ -8965,11 +10281,15 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B331" t="n">
-        <v>100069962990541</v>
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>https://fb.com/100069962990541</t>
+        </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
@@ -8986,11 +10306,15 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B332" t="n">
-        <v>61553129938552</v>
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>https://fb.com/61553129938552</t>
+        </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
@@ -9011,11 +10335,15 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B333" t="n">
-        <v>61558814675005</v>
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>https://fb.com/61558814675005</t>
+        </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
@@ -9036,11 +10364,15 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B334" t="n">
-        <v>61560891052132</v>
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>https://fb.com/61560891052132</t>
+        </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
@@ -9061,11 +10393,15 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B335" t="n">
-        <v>61563443874152</v>
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>https://fb.com/61563443874152</t>
+        </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
@@ -9086,11 +10422,15 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B336" t="n">
-        <v>61566370869560</v>
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>https://fb.com/61566370869560</t>
+        </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
@@ -9111,11 +10451,15 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B337" t="n">
-        <v>61584533571504</v>
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>https://fb.com/61584533571504</t>
+        </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
@@ -9136,11 +10480,15 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B338" t="n">
-        <v>100001359626754</v>
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>https://fb.com/100001359626754</t>
+        </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
@@ -9161,11 +10509,15 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B339" t="n">
-        <v>100002107359082</v>
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>https://fb.com/100002107359082</t>
+        </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
@@ -9186,11 +10538,15 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B340" t="n">
-        <v>100003870285448</v>
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>https://fb.com/100003870285448</t>
+        </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
@@ -9211,11 +10567,15 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B341" t="n">
-        <v>100003926424039</v>
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>https://fb.com/100003926424039</t>
+        </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
@@ -9236,11 +10596,15 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B342" t="n">
-        <v>100004319447008</v>
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>https://fb.com/100004319447008</t>
+        </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
@@ -9261,11 +10625,15 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B343" t="n">
-        <v>100004596645049</v>
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>https://fb.com/100004596645049</t>
+        </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
@@ -9286,11 +10654,15 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B344" t="n">
-        <v>100005094301381</v>
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>https://fb.com/100005094301381</t>
+        </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
@@ -9311,11 +10683,15 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B345" t="n">
-        <v>100005168239165</v>
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>https://fb.com/100005168239165</t>
+        </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
@@ -9336,11 +10712,15 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B346" t="n">
-        <v>100005723760148</v>
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>https://fb.com/100005723760148</t>
+        </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
@@ -9361,11 +10741,15 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B347" t="n">
-        <v>100006416709446</v>
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>https://fb.com/100006416709446</t>
+        </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
@@ -9386,11 +10770,15 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B348" t="n">
-        <v>100006579183720</v>
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>https://fb.com/100006579183720</t>
+        </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
@@ -9411,11 +10799,15 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B349" t="n">
-        <v>100006920073097</v>
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>https://fb.com/100006920073097</t>
+        </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
@@ -9436,11 +10828,15 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B350" t="n">
-        <v>100006944899262</v>
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>https://fb.com/100006944899262</t>
+        </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
@@ -9461,11 +10857,15 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B351" t="n">
-        <v>100007002608495</v>
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>https://fb.com/100007002608495</t>
+        </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
@@ -9486,11 +10886,15 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B352" t="n">
-        <v>100007374880817</v>
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>https://fb.com/100007374880817</t>
+        </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
@@ -9511,11 +10915,15 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B353" t="n">
-        <v>100007535085717</v>
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>https://fb.com/100007535085717</t>
+        </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
@@ -9536,11 +10944,15 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B354" t="n">
-        <v>100007897989562</v>
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>https://fb.com/100007897989562</t>
+        </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
@@ -9561,11 +10973,15 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B355" t="n">
-        <v>100008226154420</v>
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>https://fb.com/100008226154420</t>
+        </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
@@ -9586,11 +11002,15 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B356" t="n">
-        <v>100008366806969</v>
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>https://fb.com/100008366806969</t>
+        </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
@@ -9611,11 +11031,15 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B357" t="n">
-        <v>100009216460229</v>
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>https://fb.com/100009216460229</t>
+        </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
@@ -9636,11 +11060,15 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B358" t="n">
-        <v>100009265351823</v>
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>https://fb.com/100009265351823</t>
+        </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
@@ -9661,11 +11089,15 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B359" t="n">
-        <v>100009424525734</v>
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>https://fb.com/100009424525734</t>
+        </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
@@ -9686,11 +11118,15 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B360" t="n">
-        <v>100010044188533</v>
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>https://fb.com/100010044188533</t>
+        </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
@@ -9711,11 +11147,15 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B361" t="n">
-        <v>100010326874507</v>
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>https://fb.com/100010326874507</t>
+        </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
@@ -9736,11 +11176,15 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B362" t="n">
-        <v>100011164907101</v>
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>https://fb.com/100011164907101</t>
+        </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
@@ -9761,11 +11205,15 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B363" t="n">
-        <v>100011207202388</v>
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>https://fb.com/100011207202388</t>
+        </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
@@ -9786,11 +11234,15 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B364" t="n">
-        <v>100012003850999</v>
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>https://fb.com/100012003850999</t>
+        </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
@@ -9811,11 +11263,15 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B365" t="n">
-        <v>100013054335378</v>
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>https://fb.com/100013054335378</t>
+        </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
@@ -9836,11 +11292,15 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B366" t="n">
-        <v>100013195265116</v>
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>https://fb.com/100013195265116</t>
+        </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
@@ -9861,11 +11321,15 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B367" t="n">
-        <v>100013649851525</v>
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>https://fb.com/100013649851525</t>
+        </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
@@ -9886,11 +11350,15 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B368" t="n">
-        <v>100014779861142</v>
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>https://fb.com/100014779861142</t>
+        </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
@@ -9911,11 +11379,15 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B369" t="n">
-        <v>100017828318418</v>
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>https://fb.com/100017828318418</t>
+        </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
@@ -9936,11 +11408,15 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B370" t="n">
-        <v>100018590617121</v>
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>https://fb.com/100018590617121</t>
+        </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
@@ -9961,11 +11437,15 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B371" t="n">
-        <v>100018814536252</v>
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>https://fb.com/100018814536252</t>
+        </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
@@ -9986,11 +11466,15 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B372" t="n">
-        <v>100021511683043</v>
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>https://fb.com/100021511683043</t>
+        </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
@@ -10011,11 +11495,15 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B373" t="n">
-        <v>100022928674886</v>
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>https://fb.com/100022928674886</t>
+        </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
@@ -10036,11 +11524,15 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B374" t="n">
-        <v>100024146262552</v>
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>https://fb.com/100024146262552</t>
+        </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
@@ -10061,11 +11553,15 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B375" t="n">
-        <v>100024828427885</v>
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>https://fb.com/100024828427885</t>
+        </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
@@ -10086,11 +11582,15 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B376" t="n">
-        <v>100025917081875</v>
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>https://fb.com/100025917081875</t>
+        </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
@@ -10111,11 +11611,15 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B377" t="n">
-        <v>100026544307118</v>
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>https://fb.com/100026544307118</t>
+        </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
@@ -10136,11 +11640,15 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B378" t="n">
-        <v>100027628567637</v>
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>https://fb.com/100027628567637</t>
+        </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
@@ -10161,11 +11669,15 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B379" t="n">
-        <v>100028212753187</v>
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>https://fb.com/100028212753187</t>
+        </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
@@ -10186,11 +11698,15 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B380" t="n">
-        <v>100029132073762</v>
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>https://fb.com/100029132073762</t>
+        </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
@@ -10211,11 +11727,15 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B381" t="n">
-        <v>100029302941444</v>
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>https://fb.com/100029302941444</t>
+        </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
@@ -10236,11 +11756,15 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B382" t="n">
-        <v>100029637963328</v>
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>https://fb.com/100029637963328</t>
+        </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
@@ -10261,11 +11785,15 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B383" t="n">
-        <v>100029652843134</v>
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>https://fb.com/100029652843134</t>
+        </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
@@ -10286,11 +11814,15 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B384" t="n">
-        <v>100030437775414</v>
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>https://fb.com/100030437775414</t>
+        </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
@@ -10311,11 +11843,15 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B385" t="n">
-        <v>100030841508790</v>
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>https://fb.com/100030841508790</t>
+        </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
@@ -10336,11 +11872,15 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B386" t="n">
-        <v>100031002594288</v>
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>https://fb.com/100031002594288</t>
+        </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
@@ -10361,11 +11901,15 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B387" t="n">
-        <v>100035750914552</v>
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>https://fb.com/100035750914552</t>
+        </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
@@ -10386,11 +11930,15 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B388" t="n">
-        <v>100035987933344</v>
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>https://fb.com/100035987933344</t>
+        </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
@@ -10411,11 +11959,15 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B389" t="n">
-        <v>100037178883738</v>
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>https://fb.com/100037178883738</t>
+        </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
@@ -10436,11 +11988,15 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B390" t="n">
-        <v>100037455999423</v>
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>https://fb.com/100037455999423</t>
+        </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
@@ -10461,11 +12017,15 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B391" t="n">
-        <v>100039420406542</v>
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>https://fb.com/100039420406542</t>
+        </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
@@ -10486,11 +12046,15 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B392" t="n">
-        <v>100039716731318</v>
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>https://fb.com/100039716731318</t>
+        </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
@@ -10511,11 +12075,15 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B393" t="n">
-        <v>100040368762177</v>
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>https://fb.com/100040368762177</t>
+        </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
@@ -10536,11 +12104,15 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B394" t="n">
-        <v>100041193622668</v>
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>https://fb.com/100041193622668</t>
+        </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
@@ -10561,11 +12133,15 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B395" t="n">
-        <v>100042560524076</v>
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>https://fb.com/100042560524076</t>
+        </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
@@ -10586,11 +12162,15 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B396" t="n">
-        <v>100043528662366</v>
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>https://fb.com/100043528662366</t>
+        </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
@@ -10611,11 +12191,15 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B397" t="n">
-        <v>100045706487484</v>
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>https://fb.com/100045706487484</t>
+        </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
@@ -10636,11 +12220,15 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B398" t="n">
-        <v>100047830033962</v>
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>https://fb.com/100047830033962</t>
+        </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
@@ -10661,11 +12249,15 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B399" t="n">
-        <v>100050693840134</v>
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>https://fb.com/100050693840134</t>
+        </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
@@ -10686,11 +12278,15 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B400" t="n">
-        <v>100050780215678</v>
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>https://fb.com/100050780215678</t>
+        </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
@@ -10711,11 +12307,15 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B401" t="n">
-        <v>100051433590338</v>
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>https://fb.com/100051433590338</t>
+        </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
@@ -10736,11 +12336,15 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B402" t="n">
-        <v>100064844640536</v>
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>https://fb.com/100064844640536</t>
+        </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
@@ -10761,11 +12365,15 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B403" t="n">
-        <v>100065288443062</v>
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>https://fb.com/100065288443062</t>
+        </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
@@ -10786,11 +12394,15 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B404" t="n">
-        <v>100066794683516</v>
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>https://fb.com/100066794683516</t>
+        </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
@@ -10811,11 +12423,15 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B405" t="n">
-        <v>100069961894254</v>
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>https://fb.com/100069961894254</t>
+        </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
@@ -10836,11 +12452,15 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B406" t="n">
-        <v>100070722196475</v>
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>https://fb.com/100070722196475</t>
+        </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
@@ -10861,11 +12481,15 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B407" t="n">
-        <v>100070980505136</v>
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>https://fb.com/100070980505136</t>
+        </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
@@ -10886,11 +12510,15 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B408" t="n">
-        <v>100071743036924</v>
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>https://fb.com/100071743036924</t>
+        </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
@@ -10911,11 +12539,15 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B409" t="n">
-        <v>100074131657125</v>
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>https://fb.com/100074131657125</t>
+        </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
@@ -10936,11 +12568,15 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B410" t="n">
-        <v>100076261594456</v>
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>https://fb.com/100076261594456</t>
+        </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
@@ -10961,11 +12597,15 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B411" t="n">
-        <v>100078958039457</v>
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>https://fb.com/100078958039457</t>
+        </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
@@ -10986,11 +12626,15 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B412" t="n">
-        <v>100080797295174</v>
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>https://fb.com/100080797295174</t>
+        </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
@@ -11011,11 +12655,15 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B413" t="n">
-        <v>100081670096140</v>
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>https://fb.com/100081670096140</t>
+        </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
@@ -11036,11 +12684,15 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B414" t="n">
-        <v>100088437660474</v>
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>https://fb.com/100088437660474</t>
+        </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
@@ -11061,11 +12713,15 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" t="n">
-        <v>1169967265345362</v>
-      </c>
-      <c r="B415" t="n">
-        <v>100095193156665</v>
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>https://fb.com/1169967265345362</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>https://fb.com/100095193156665</t>
+        </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
